--- a/02_data/cleandata/df_studylist_cohort_unique.xlsx
+++ b/02_data/cleandata/df_studylist_cohort_unique.xlsx
@@ -1085,13 +1085,13 @@
     <t xml:space="preserve">Focking (2016)</t>
   </si>
   <si>
-    <t xml:space="preserve">Focking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">focking_2016_chr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">focking_2016</t>
+    <t xml:space="preserve">Foecking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foecking_2016_chr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foecking_2016</t>
   </si>
   <si>
     <t xml:space="preserve">Labad (2015)</t>
@@ -2549,16 +2549,16 @@
     <t xml:space="preserve">Oullette-Plamondon (2017)</t>
   </si>
   <si>
-    <t xml:space="preserve">Oullette-Plamondon</t>
+    <t xml:space="preserve">Oullett-Plamondon</t>
   </si>
   <si>
     <t xml:space="preserve">0.9</t>
   </si>
   <si>
-    <t xml:space="preserve">oullette-plamondon_2017_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oullette-plamondon_2017</t>
+    <t xml:space="preserve">oullett-plamondon_2017_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oullett-plamondon_2017</t>
   </si>
   <si>
     <t xml:space="preserve">Schimmelmann (2011)</t>

--- a/02_data/cleandata/df_studylist_cohort_unique.xlsx
+++ b/02_data/cleandata/df_studylist_cohort_unique.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="949">
   <si>
     <t xml:space="preserve">population</t>
   </si>
@@ -722,19 +722,16 @@
     <t xml:space="preserve">Kristensen and Cadenhead (2007)</t>
   </si>
   <si>
-    <t xml:space="preserve">Kristensen and Cadenhead</t>
+    <t xml:space="preserve">Kristensen</t>
   </si>
   <si>
     <t xml:space="preserve">2007</t>
   </si>
   <si>
-    <t xml:space="preserve">KristensenandCadenhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kristensenandcadenhead_2007_chr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kristensenandcadenhead_2007</t>
+    <t xml:space="preserve">kristensen_2007_chr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kristensen_2007</t>
   </si>
   <si>
     <t xml:space="preserve">Auther (2012)</t>
@@ -890,39 +887,18 @@
     <t xml:space="preserve">dragt_2012</t>
   </si>
   <si>
-    <t xml:space="preserve">Kristensen (2007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kristensen</t>
+    <t xml:space="preserve">Dragt (2010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
   </si>
   <si>
     <t xml:space="preserve">Farris (2019)</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
     <t xml:space="preserve">RR</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kristensen_2007_chr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kristensen_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragt (2010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.37</t>
   </si>
   <si>
@@ -1028,7 +1004,7 @@
     <t xml:space="preserve">bloemen_2010_chr</t>
   </si>
   <si>
-    <t xml:space="preserve">bloemen_2010</t>
+    <t xml:space="preserve">bloemen_2009</t>
   </si>
   <si>
     <t xml:space="preserve">Bousman (2013)</t>
@@ -2537,16 +2513,16 @@
     <t xml:space="preserve">Oullette-Plamondon (2017)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ouellett-Plamondon</t>
+    <t xml:space="preserve">Ouellet-Plamondon</t>
   </si>
   <si>
     <t xml:space="preserve">0.9</t>
   </si>
   <si>
-    <t xml:space="preserve">ouellett-plamondon_2017_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ouellett-plamondon_2017</t>
+    <t xml:space="preserve">ouellet-plamondon_2017_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ouellet-plamondon_2017</t>
   </si>
   <si>
     <t xml:space="preserve">Schimmelmann (2011)</t>
@@ -3353,7 +3329,7 @@
         <v>41</v>
       </c>
       <c r="Z2" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
@@ -3477,7 +3453,7 @@
         <v>57</v>
       </c>
       <c r="Z4" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
@@ -3547,7 +3523,7 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6">
@@ -3753,7 +3729,7 @@
         <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
@@ -3951,7 +3927,7 @@
         <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12">
@@ -4017,7 +3993,7 @@
         <v>41</v>
       </c>
       <c r="Z12" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13">
@@ -4087,7 +4063,7 @@
         <v>57</v>
       </c>
       <c r="Z13" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14">
@@ -4157,7 +4133,7 @@
         <v>57</v>
       </c>
       <c r="Z14" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15">
@@ -4223,7 +4199,7 @@
         <v>57</v>
       </c>
       <c r="Z15" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16">
@@ -4355,7 +4331,7 @@
         <v>57</v>
       </c>
       <c r="Z17" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18">
@@ -4611,7 +4587,7 @@
         <v>57</v>
       </c>
       <c r="Z21" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
@@ -4675,7 +4651,7 @@
         <v>57</v>
       </c>
       <c r="Z22" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
@@ -4739,7 +4715,7 @@
         <v>57</v>
       </c>
       <c r="Z23" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
@@ -5063,7 +5039,7 @@
         <v>57</v>
       </c>
       <c r="Z28" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
@@ -5108,22 +5084,22 @@
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="V29" t="s">
         <v>228</v>
       </c>
       <c r="W29" t="s">
+        <v>238</v>
+      </c>
+      <c r="X29" t="s">
         <v>239</v>
-      </c>
-      <c r="X29" t="s">
-        <v>240</v>
       </c>
       <c r="Y29" t="s">
         <v>57</v>
       </c>
       <c r="Z29" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30">
@@ -5134,19 +5110,19 @@
         <v>221</v>
       </c>
       <c r="C30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" t="s">
         <v>241</v>
-      </c>
-      <c r="D30" t="s">
-        <v>242</v>
       </c>
       <c r="E30" t="s">
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" t="s">
         <v>243</v>
-      </c>
-      <c r="G30" t="s">
-        <v>244</v>
       </c>
       <c r="H30" t="s">
         <v>225</v>
@@ -5158,19 +5134,19 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N30" t="s">
         <v>66</v>
       </c>
       <c r="O30" t="s">
+        <v>245</v>
+      </c>
+      <c r="P30" t="s">
         <v>246</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>247</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>248</v>
       </c>
       <c r="R30" t="s">
         <v>226</v>
@@ -5178,16 +5154,16 @@
       <c r="S30"/>
       <c r="T30"/>
       <c r="U30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V30" t="s">
         <v>228</v>
       </c>
       <c r="W30" t="s">
+        <v>248</v>
+      </c>
+      <c r="X30" t="s">
         <v>249</v>
-      </c>
-      <c r="X30" t="s">
-        <v>250</v>
       </c>
       <c r="Y30" t="s">
         <v>57</v>
@@ -5204,19 +5180,19 @@
         <v>221</v>
       </c>
       <c r="C31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" t="s">
         <v>251</v>
-      </c>
-      <c r="D31" t="s">
-        <v>252</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
         <v>243</v>
-      </c>
-      <c r="G31" t="s">
-        <v>244</v>
       </c>
       <c r="H31" t="s">
         <v>225</v>
@@ -5228,19 +5204,19 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N31" t="s">
         <v>66</v>
       </c>
       <c r="O31" t="s">
+        <v>253</v>
+      </c>
+      <c r="P31" t="s">
         <v>254</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>255</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>256</v>
       </c>
       <c r="R31" t="s">
         <v>226</v>
@@ -5248,22 +5224,22 @@
       <c r="S31"/>
       <c r="T31"/>
       <c r="U31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V31" t="s">
         <v>228</v>
       </c>
       <c r="W31" t="s">
+        <v>256</v>
+      </c>
+      <c r="X31" t="s">
         <v>257</v>
-      </c>
-      <c r="X31" t="s">
-        <v>258</v>
       </c>
       <c r="Y31" t="s">
         <v>57</v>
       </c>
       <c r="Z31" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32">
@@ -5274,19 +5250,19 @@
         <v>221</v>
       </c>
       <c r="C32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" t="s">
         <v>259</v>
-      </c>
-      <c r="D32" t="s">
-        <v>260</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
         <v>243</v>
-      </c>
-      <c r="G32" t="s">
-        <v>244</v>
       </c>
       <c r="H32" t="s">
         <v>225</v>
@@ -5298,19 +5274,19 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N32" t="s">
         <v>66</v>
       </c>
       <c r="O32" t="s">
+        <v>261</v>
+      </c>
+      <c r="P32" t="s">
         <v>262</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>263</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>264</v>
       </c>
       <c r="R32" t="s">
         <v>226</v>
@@ -5318,16 +5294,16 @@
       <c r="S32"/>
       <c r="T32"/>
       <c r="U32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V32" t="s">
         <v>228</v>
       </c>
       <c r="W32" t="s">
+        <v>264</v>
+      </c>
+      <c r="X32" t="s">
         <v>265</v>
-      </c>
-      <c r="X32" t="s">
-        <v>266</v>
       </c>
       <c r="Y32" t="s">
         <v>57</v>
@@ -5344,19 +5320,19 @@
         <v>221</v>
       </c>
       <c r="C33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" t="s">
         <v>267</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>242</v>
       </c>
-      <c r="E33" t="s">
-        <v>268</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>243</v>
-      </c>
-      <c r="G33" t="s">
-        <v>244</v>
       </c>
       <c r="H33" t="s">
         <v>225</v>
@@ -5368,36 +5344,36 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N33" t="s">
         <v>66</v>
       </c>
       <c r="O33" t="s">
+        <v>269</v>
+      </c>
+      <c r="P33" t="s">
         <v>270</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>271</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>272</v>
-      </c>
-      <c r="R33" t="s">
-        <v>273</v>
       </c>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V33" t="s">
         <v>228</v>
       </c>
       <c r="W33" t="s">
+        <v>273</v>
+      </c>
+      <c r="X33" t="s">
         <v>274</v>
-      </c>
-      <c r="X33" t="s">
-        <v>275</v>
       </c>
       <c r="Y33" t="s">
         <v>57</v>
@@ -5414,19 +5390,19 @@
         <v>221</v>
       </c>
       <c r="C34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" t="s">
         <v>276</v>
-      </c>
-      <c r="D34" t="s">
-        <v>277</v>
       </c>
       <c r="E34" t="s">
         <v>187</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H34" t="s">
         <v>225</v>
@@ -5438,19 +5414,19 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N34" t="s">
         <v>66</v>
       </c>
       <c r="O34" t="s">
+        <v>279</v>
+      </c>
+      <c r="P34" t="s">
         <v>280</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>281</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>282</v>
       </c>
       <c r="R34" t="s">
         <v>226</v>
@@ -5458,16 +5434,16 @@
       <c r="S34"/>
       <c r="T34"/>
       <c r="U34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V34" t="s">
         <v>228</v>
       </c>
       <c r="W34" t="s">
+        <v>282</v>
+      </c>
+      <c r="X34" t="s">
         <v>283</v>
-      </c>
-      <c r="X34" t="s">
-        <v>284</v>
       </c>
       <c r="Y34" t="s">
         <v>57</v>
@@ -5484,7 +5460,7 @@
         <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
         <v>227</v>
@@ -5493,10 +5469,10 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H35" t="s">
         <v>225</v>
@@ -5508,19 +5484,19 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s">
         <v>66</v>
       </c>
       <c r="O35" t="s">
+        <v>286</v>
+      </c>
+      <c r="P35" t="s">
         <v>287</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>288</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>289</v>
       </c>
       <c r="R35" t="s">
         <v>226</v>
@@ -5534,10 +5510,10 @@
         <v>228</v>
       </c>
       <c r="W35" t="s">
+        <v>289</v>
+      </c>
+      <c r="X35" t="s">
         <v>290</v>
-      </c>
-      <c r="X35" t="s">
-        <v>291</v>
       </c>
       <c r="Y35" t="s">
         <v>57</v>
@@ -5554,16 +5530,16 @@
         <v>221</v>
       </c>
       <c r="C36" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" t="s">
         <v>292</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>293</v>
-      </c>
-      <c r="E36" t="s">
-        <v>237</v>
-      </c>
-      <c r="F36" t="s">
-        <v>294</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -5578,40 +5554,40 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36" t="s">
+        <v>278</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
         <v>295</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>296</v>
-      </c>
-      <c r="O36" t="s">
-        <v>297</v>
-      </c>
-      <c r="P36" t="s">
-        <v>298</v>
       </c>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="V36" t="s">
         <v>228</v>
       </c>
       <c r="W36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Y36" t="s">
         <v>57</v>
       </c>
       <c r="Z36" t="n">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -5622,16 +5598,16 @@
         <v>221</v>
       </c>
       <c r="C37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E37" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -5646,16 +5622,16 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q37"/>
       <c r="R37" t="s">
@@ -5664,22 +5640,22 @@
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="V37" t="s">
         <v>228</v>
       </c>
       <c r="W37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="X37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Y37" t="s">
         <v>57</v>
       </c>
       <c r="Z37" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
@@ -5690,16 +5666,16 @@
         <v>221</v>
       </c>
       <c r="C38" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" t="s">
         <v>307</v>
       </c>
-      <c r="D38" t="s">
-        <v>260</v>
-      </c>
-      <c r="E38" t="s">
-        <v>268</v>
-      </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -5717,7 +5693,7 @@
         <v>308</v>
       </c>
       <c r="N38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O38" t="s">
         <v>309</v>
@@ -5732,7 +5708,7 @@
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="V38" t="s">
         <v>228</v>
@@ -5747,7 +5723,7 @@
         <v>57</v>
       </c>
       <c r="Z38" t="n">
-        <v>47</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39">
@@ -5764,10 +5740,10 @@
         <v>314</v>
       </c>
       <c r="E39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F39" t="s">
         <v>315</v>
-      </c>
-      <c r="F39" t="s">
-        <v>294</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -5784,18 +5760,12 @@
       <c r="M39" t="s">
         <v>316</v>
       </c>
-      <c r="N39" t="s">
-        <v>296</v>
-      </c>
-      <c r="O39" t="s">
-        <v>317</v>
-      </c>
-      <c r="P39" t="s">
-        <v>318</v>
-      </c>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="S39"/>
       <c r="T39"/>
@@ -5806,16 +5776,16 @@
         <v>228</v>
       </c>
       <c r="W39" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="X39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Y39" t="s">
         <v>57</v>
       </c>
       <c r="Z39" t="n">
-        <v>203</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -5826,16 +5796,16 @@
         <v>221</v>
       </c>
       <c r="C40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E40" t="s">
+        <v>307</v>
+      </c>
+      <c r="F40" t="s">
         <v>315</v>
-      </c>
-      <c r="F40" t="s">
-        <v>323</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -5849,35 +5819,31 @@
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="M40" t="s">
-        <v>324</v>
-      </c>
+      <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40" t="s">
-        <v>324</v>
-      </c>
+      <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
       <c r="U40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="V40" t="s">
         <v>228</v>
       </c>
       <c r="W40" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="X40" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s">
         <v>57</v>
       </c>
       <c r="Z40" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -5888,16 +5854,16 @@
         <v>221</v>
       </c>
       <c r="C41" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D41" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
         <v>315</v>
-      </c>
-      <c r="F41" t="s">
-        <v>323</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -5920,22 +5886,22 @@
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="V41" t="s">
         <v>228</v>
       </c>
       <c r="W41" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="X41" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Y41" t="s">
         <v>57</v>
       </c>
       <c r="Z41" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -5946,16 +5912,16 @@
         <v>221</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D42" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="F42" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -5978,22 +5944,22 @@
       <c r="S42"/>
       <c r="T42"/>
       <c r="U42" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="V42" t="s">
         <v>228</v>
       </c>
       <c r="W42" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="X42" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Y42" t="s">
         <v>57</v>
       </c>
       <c r="Z42" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -6004,16 +5970,16 @@
         <v>221</v>
       </c>
       <c r="C43" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D43" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E43" t="s">
-        <v>302</v>
+        <v>199</v>
       </c>
       <c r="F43" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -6036,22 +6002,22 @@
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="V43" t="s">
         <v>228</v>
       </c>
       <c r="W43" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="X43" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Y43" t="s">
         <v>57</v>
       </c>
       <c r="Z43" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -6062,16 +6028,16 @@
         <v>221</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D44" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="F44" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -6094,22 +6060,22 @@
       <c r="S44"/>
       <c r="T44"/>
       <c r="U44" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="V44" t="s">
         <v>228</v>
       </c>
       <c r="W44" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="X44" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Y44" t="s">
         <v>57</v>
       </c>
       <c r="Z44" t="n">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
@@ -6120,16 +6086,16 @@
         <v>221</v>
       </c>
       <c r="C45" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D45" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -6152,22 +6118,22 @@
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="V45" t="s">
         <v>228</v>
       </c>
       <c r="W45" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="X45" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Y45" t="s">
         <v>57</v>
       </c>
       <c r="Z45" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
@@ -6178,16 +6144,16 @@
         <v>221</v>
       </c>
       <c r="C46" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D46" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="F46" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -6210,22 +6176,22 @@
       <c r="S46"/>
       <c r="T46"/>
       <c r="U46" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="V46" t="s">
         <v>228</v>
       </c>
       <c r="W46" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="X46" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Y46" t="s">
         <v>57</v>
       </c>
       <c r="Z46" t="n">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
@@ -6236,16 +6202,16 @@
         <v>221</v>
       </c>
       <c r="C47" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D47" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="F47" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -6268,22 +6234,22 @@
       <c r="S47"/>
       <c r="T47"/>
       <c r="U47" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="V47" t="s">
         <v>228</v>
       </c>
       <c r="W47" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="X47" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Y47" t="s">
         <v>57</v>
       </c>
       <c r="Z47" t="n">
-        <v>107</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48">
@@ -6294,16 +6260,16 @@
         <v>221</v>
       </c>
       <c r="C48" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D48" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E48" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -6326,22 +6292,22 @@
       <c r="S48"/>
       <c r="T48"/>
       <c r="U48" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="V48" t="s">
         <v>228</v>
       </c>
       <c r="W48" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="X48" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Y48" t="s">
         <v>57</v>
       </c>
       <c r="Z48" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49">
@@ -6352,16 +6318,16 @@
         <v>221</v>
       </c>
       <c r="C49" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D49" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E49" t="s">
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G49" t="s">
         <v>32</v>
@@ -6384,22 +6350,22 @@
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="V49" t="s">
         <v>228</v>
       </c>
       <c r="W49" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="X49" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Y49" t="s">
         <v>57</v>
       </c>
       <c r="Z49" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50">
@@ -6410,16 +6376,16 @@
         <v>221</v>
       </c>
       <c r="C50" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D50" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>361</v>
       </c>
       <c r="F50" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -6442,22 +6408,22 @@
       <c r="S50"/>
       <c r="T50"/>
       <c r="U50" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="V50" t="s">
         <v>228</v>
       </c>
       <c r="W50" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X50" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Y50" t="s">
         <v>57</v>
       </c>
       <c r="Z50" t="n">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51">
@@ -6468,16 +6434,16 @@
         <v>221</v>
       </c>
       <c r="C51" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D51" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E51" t="s">
-        <v>369</v>
+        <v>171</v>
       </c>
       <c r="F51" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -6500,22 +6466,22 @@
       <c r="S51"/>
       <c r="T51"/>
       <c r="U51" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V51" t="s">
         <v>228</v>
       </c>
       <c r="W51" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="X51" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Y51" t="s">
         <v>57</v>
       </c>
       <c r="Z51" t="n">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
@@ -6526,16 +6492,16 @@
         <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D52" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E52" t="s">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="F52" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -6558,22 +6524,22 @@
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V52" t="s">
         <v>228</v>
       </c>
       <c r="W52" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="X52" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Y52" t="s">
         <v>57</v>
       </c>
       <c r="Z52" t="n">
-        <v>278</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53">
@@ -6584,16 +6550,16 @@
         <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D53" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E53" t="s">
-        <v>369</v>
+        <v>121</v>
       </c>
       <c r="F53" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
@@ -6616,22 +6582,22 @@
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="V53" t="s">
         <v>228</v>
       </c>
       <c r="W53" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="X53" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Y53" t="s">
         <v>57</v>
       </c>
       <c r="Z53" t="n">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54">
@@ -6639,25 +6605,25 @@
         <v>220</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>376</v>
       </c>
       <c r="C54" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D54" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="F54" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
       </c>
       <c r="H54" t="s">
-        <v>225</v>
+        <v>376</v>
       </c>
       <c r="I54" t="s">
         <v>129</v>
@@ -6670,26 +6636,28 @@
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54"/>
+      <c r="R54" t="s">
+        <v>46</v>
+      </c>
       <c r="S54"/>
       <c r="T54"/>
       <c r="U54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V54" t="s">
         <v>228</v>
       </c>
       <c r="W54" t="s">
+        <v>381</v>
+      </c>
+      <c r="X54" t="s">
         <v>382</v>
-      </c>
-      <c r="X54" t="s">
-        <v>383</v>
       </c>
       <c r="Y54" t="s">
         <v>57</v>
       </c>
       <c r="Z54" t="n">
-        <v>338</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -6697,25 +6665,25 @@
         <v>220</v>
       </c>
       <c r="B55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" t="s">
+        <v>383</v>
+      </c>
+      <c r="D55" t="s">
         <v>384</v>
       </c>
-      <c r="C55" t="s">
-        <v>385</v>
-      </c>
-      <c r="D55" t="s">
-        <v>386</v>
-      </c>
       <c r="E55" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F55" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
       </c>
       <c r="H55" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="I55" t="s">
         <v>129</v>
@@ -6729,27 +6697,27 @@
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="S55"/>
       <c r="T55"/>
       <c r="U55" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="V55" t="s">
         <v>228</v>
       </c>
       <c r="W55" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="X55" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Y55" t="s">
         <v>57</v>
       </c>
       <c r="Z55" t="n">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56">
@@ -6757,25 +6725,25 @@
         <v>220</v>
       </c>
       <c r="B56" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C56" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D56" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E56" t="s">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="F56" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="I56" t="s">
         <v>129</v>
@@ -6789,27 +6757,27 @@
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="S56"/>
       <c r="T56"/>
       <c r="U56" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="V56" t="s">
         <v>228</v>
       </c>
       <c r="W56" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="X56" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Y56" t="s">
         <v>57</v>
       </c>
       <c r="Z56" t="n">
-        <v>183</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57">
@@ -6817,25 +6785,25 @@
         <v>220</v>
       </c>
       <c r="B57" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C57" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D57" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E57" t="s">
-        <v>369</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G57" t="s">
         <v>32</v>
       </c>
       <c r="H57" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="I57" t="s">
         <v>129</v>
@@ -6843,33 +6811,43 @@
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
+      <c r="M57" t="s">
+        <v>396</v>
+      </c>
+      <c r="N57" t="s">
+        <v>397</v>
+      </c>
+      <c r="O57" t="s">
+        <v>398</v>
+      </c>
+      <c r="P57" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>400</v>
+      </c>
       <c r="R57" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="S57"/>
       <c r="T57"/>
       <c r="U57" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="V57" t="s">
         <v>228</v>
       </c>
       <c r="W57" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="X57" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Y57" t="s">
         <v>57</v>
       </c>
       <c r="Z57" t="n">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58">
@@ -6877,25 +6855,25 @@
         <v>220</v>
       </c>
       <c r="B58" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C58" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D58" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="F58" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G58" t="s">
         <v>32</v>
       </c>
       <c r="H58" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="I58" t="s">
         <v>129</v>
@@ -6907,39 +6885,39 @@
         <v>404</v>
       </c>
       <c r="N58" t="s">
+        <v>397</v>
+      </c>
+      <c r="O58" t="s">
         <v>405</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>406</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>407</v>
       </c>
-      <c r="Q58" t="s">
-        <v>408</v>
-      </c>
       <c r="R58" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="S58"/>
       <c r="T58"/>
       <c r="U58" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="V58" t="s">
         <v>228</v>
       </c>
       <c r="W58" t="s">
+        <v>408</v>
+      </c>
+      <c r="X58" t="s">
         <v>409</v>
-      </c>
-      <c r="X58" t="s">
-        <v>410</v>
       </c>
       <c r="Y58" t="s">
         <v>57</v>
       </c>
       <c r="Z58" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59">
@@ -6947,25 +6925,25 @@
         <v>220</v>
       </c>
       <c r="B59" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C59" t="s">
+        <v>410</v>
+      </c>
+      <c r="D59" t="s">
         <v>411</v>
       </c>
-      <c r="D59" t="s">
-        <v>364</v>
-      </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="F59" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
       </c>
       <c r="H59" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="I59" t="s">
         <v>129</v>
@@ -6977,7 +6955,7 @@
         <v>412</v>
       </c>
       <c r="N59" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="O59" t="s">
         <v>413</v>
@@ -6989,27 +6967,27 @@
         <v>415</v>
       </c>
       <c r="R59" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="S59"/>
       <c r="T59"/>
       <c r="U59" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="V59" t="s">
         <v>228</v>
       </c>
       <c r="W59" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="X59" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y59" t="s">
         <v>57</v>
       </c>
       <c r="Z59" t="n">
-        <v>217</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60">
@@ -7017,25 +6995,25 @@
         <v>220</v>
       </c>
       <c r="B60" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C60" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D60" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E60" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="F60" t="s">
-        <v>402</v>
+        <v>293</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>421</v>
       </c>
       <c r="H60" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="I60" t="s">
         <v>129</v>
@@ -7043,43 +7021,33 @@
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
-      <c r="M60" t="s">
-        <v>420</v>
-      </c>
-      <c r="N60" t="s">
-        <v>405</v>
-      </c>
-      <c r="O60" t="s">
-        <v>421</v>
-      </c>
-      <c r="P60" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>423</v>
-      </c>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
       <c r="R60" t="s">
         <v>226</v>
       </c>
       <c r="S60"/>
       <c r="T60"/>
       <c r="U60" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="V60" t="s">
         <v>228</v>
       </c>
       <c r="W60" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="X60" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Y60" t="s">
         <v>57</v>
       </c>
       <c r="Z60" t="n">
-        <v>317</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61">
@@ -7087,25 +7055,25 @@
         <v>220</v>
       </c>
       <c r="B61" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C61" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D61" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E61" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G61" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H61" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="I61" t="s">
         <v>129</v>
@@ -7124,22 +7092,22 @@
       <c r="S61"/>
       <c r="T61"/>
       <c r="U61" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="V61" t="s">
         <v>228</v>
       </c>
       <c r="W61" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="X61" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Y61" t="s">
         <v>57</v>
       </c>
       <c r="Z61" t="n">
-        <v>119</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62">
@@ -7147,25 +7115,25 @@
         <v>220</v>
       </c>
       <c r="B62" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="C62" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D62" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="G62" t="s">
+        <v>431</v>
+      </c>
+      <c r="H62" t="s">
         <v>429</v>
-      </c>
-      <c r="H62" t="s">
-        <v>430</v>
       </c>
       <c r="I62" t="s">
         <v>129</v>
@@ -7173,129 +7141,131 @@
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="M62" t="s">
+        <v>432</v>
+      </c>
+      <c r="N62" t="s">
+        <v>66</v>
+      </c>
+      <c r="O62" t="s">
+        <v>433</v>
+      </c>
+      <c r="P62" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>435</v>
+      </c>
       <c r="R62" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="S62"/>
       <c r="T62"/>
       <c r="U62" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="V62" t="s">
         <v>228</v>
       </c>
       <c r="W62" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="X62" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y62" t="s">
         <v>57</v>
       </c>
       <c r="Z62" t="n">
-        <v>331</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>220</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C63" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D63" t="s">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="G63" t="s">
+        <v>443</v>
+      </c>
+      <c r="H63" t="s">
         <v>439</v>
       </c>
-      <c r="H63" t="s">
-        <v>437</v>
-      </c>
       <c r="I63" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63" t="s">
-        <v>440</v>
-      </c>
-      <c r="N63" t="s">
-        <v>66</v>
-      </c>
-      <c r="O63" t="s">
-        <v>441</v>
-      </c>
-      <c r="P63" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>443</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
       <c r="R63" t="s">
-        <v>46</v>
+        <v>316</v>
       </c>
       <c r="S63"/>
       <c r="T63"/>
       <c r="U63" t="s">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="V63" t="s">
-        <v>228</v>
+        <v>444</v>
       </c>
       <c r="W63" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="X63" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y63" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="Z63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s">
+        <v>439</v>
+      </c>
+      <c r="C64" t="s">
         <v>447</v>
       </c>
-      <c r="C64" t="s">
-        <v>448</v>
-      </c>
       <c r="D64" t="s">
-        <v>449</v>
+        <v>314</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G64" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H64" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I64" t="s">
         <v>34</v>
@@ -7303,61 +7273,57 @@
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
-      <c r="M64" t="s">
-        <v>324</v>
-      </c>
+      <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64" t="s">
-        <v>324</v>
-      </c>
+      <c r="R64"/>
       <c r="S64"/>
       <c r="T64"/>
       <c r="U64" t="s">
+        <v>314</v>
+      </c>
+      <c r="V64" t="s">
+        <v>444</v>
+      </c>
+      <c r="W64" t="s">
+        <v>448</v>
+      </c>
+      <c r="X64" t="s">
         <v>449</v>
-      </c>
-      <c r="V64" t="s">
-        <v>452</v>
-      </c>
-      <c r="W64" t="s">
-        <v>453</v>
-      </c>
-      <c r="X64" t="s">
-        <v>454</v>
       </c>
       <c r="Y64" t="s">
         <v>41</v>
       </c>
       <c r="Z64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C65" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D65" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>307</v>
       </c>
       <c r="F65" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G65" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H65" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I65" t="s">
         <v>34</v>
@@ -7374,48 +7340,48 @@
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="V65" t="s">
+        <v>444</v>
+      </c>
+      <c r="W65" t="s">
         <v>452</v>
       </c>
-      <c r="W65" t="s">
-        <v>456</v>
-      </c>
       <c r="X65" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="Y65" t="s">
         <v>41</v>
       </c>
       <c r="Z65" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C66" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D66" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E66" t="s">
-        <v>315</v>
+        <v>456</v>
       </c>
       <c r="F66" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G66" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H66" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I66" t="s">
         <v>34</v>
@@ -7432,48 +7398,48 @@
       <c r="S66"/>
       <c r="T66"/>
       <c r="U66" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="V66" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W66" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="X66" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Y66" t="s">
         <v>41</v>
       </c>
       <c r="Z66" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C67" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D67" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E67" t="s">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="F67" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G67" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H67" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I67" t="s">
         <v>34</v>
@@ -7490,48 +7456,48 @@
       <c r="S67"/>
       <c r="T67"/>
       <c r="U67" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="V67" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W67" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="X67" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Y67" t="s">
         <v>41</v>
       </c>
       <c r="Z67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C68" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D68" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E68" t="s">
         <v>82</v>
       </c>
       <c r="F68" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G68" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H68" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I68" t="s">
         <v>34</v>
@@ -7548,48 +7514,48 @@
       <c r="S68"/>
       <c r="T68"/>
       <c r="U68" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="V68" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W68" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="X68" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="Y68" t="s">
         <v>41</v>
       </c>
       <c r="Z68" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B69" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C69" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D69" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E69" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="F69" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G69" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H69" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I69" t="s">
         <v>34</v>
@@ -7606,48 +7572,48 @@
       <c r="S69"/>
       <c r="T69"/>
       <c r="U69" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="V69" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W69" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="X69" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Y69" t="s">
         <v>41</v>
       </c>
       <c r="Z69" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B70" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C70" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D70" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E70" t="s">
         <v>187</v>
       </c>
       <c r="F70" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G70" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H70" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I70" t="s">
         <v>34</v>
@@ -7664,48 +7630,48 @@
       <c r="S70"/>
       <c r="T70"/>
       <c r="U70" t="s">
+        <v>471</v>
+      </c>
+      <c r="V70" t="s">
+        <v>444</v>
+      </c>
+      <c r="W70" t="s">
         <v>472</v>
       </c>
-      <c r="V70" t="s">
-        <v>452</v>
-      </c>
-      <c r="W70" t="s">
-        <v>476</v>
-      </c>
       <c r="X70" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Y70" t="s">
         <v>41</v>
       </c>
       <c r="Z70" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C71" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D71" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E71" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="F71" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G71" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H71" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I71" t="s">
         <v>34</v>
@@ -7722,48 +7688,48 @@
       <c r="S71"/>
       <c r="T71"/>
       <c r="U71" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="V71" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W71" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="X71" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Y71" t="s">
         <v>41</v>
       </c>
       <c r="Z71" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B72" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C72" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D72" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="F72" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G72" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H72" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I72" t="s">
         <v>34</v>
@@ -7780,48 +7746,48 @@
       <c r="S72"/>
       <c r="T72"/>
       <c r="U72" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="V72" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W72" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="X72" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="Y72" t="s">
         <v>41</v>
       </c>
       <c r="Z72" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B73" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C73" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D73" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E73" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="F73" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G73" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H73" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I73" t="s">
         <v>34</v>
@@ -7838,48 +7804,48 @@
       <c r="S73"/>
       <c r="T73"/>
       <c r="U73" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="V73" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W73" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="X73" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Y73" t="s">
         <v>41</v>
       </c>
       <c r="Z73" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B74" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C74" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D74" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E74" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="F74" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G74" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H74" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I74" t="s">
         <v>34</v>
@@ -7896,48 +7862,48 @@
       <c r="S74"/>
       <c r="T74"/>
       <c r="U74" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="V74" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W74" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="X74" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="Y74" t="s">
         <v>41</v>
       </c>
       <c r="Z74" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B75" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C75" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D75" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E75" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="F75" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G75" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H75" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I75" t="s">
         <v>34</v>
@@ -7954,48 +7920,48 @@
       <c r="S75"/>
       <c r="T75"/>
       <c r="U75" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="V75" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W75" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="X75" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Y75" t="s">
         <v>41</v>
       </c>
       <c r="Z75" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C76" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D76" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E76" t="s">
-        <v>121</v>
+        <v>361</v>
       </c>
       <c r="F76" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G76" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H76" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I76" t="s">
         <v>34</v>
@@ -8012,48 +7978,48 @@
       <c r="S76"/>
       <c r="T76"/>
       <c r="U76" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="V76" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W76" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X76" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Y76" t="s">
         <v>41</v>
       </c>
       <c r="Z76" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B77" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C77" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D77" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E77" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="F77" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G77" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H77" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I77" t="s">
         <v>34</v>
@@ -8070,48 +8036,48 @@
       <c r="S77"/>
       <c r="T77"/>
       <c r="U77" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="V77" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W77" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="X77" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="Y77" t="s">
         <v>41</v>
       </c>
       <c r="Z77" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B78" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C78" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D78" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E78" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="F78" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G78" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H78" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I78" t="s">
         <v>34</v>
@@ -8128,48 +8094,48 @@
       <c r="S78"/>
       <c r="T78"/>
       <c r="U78" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="V78" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W78" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="X78" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Y78" t="s">
         <v>41</v>
       </c>
       <c r="Z78" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B79" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C79" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D79" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E79" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="F79" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G79" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H79" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I79" t="s">
         <v>34</v>
@@ -8186,48 +8152,48 @@
       <c r="S79"/>
       <c r="T79"/>
       <c r="U79" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="V79" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W79" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="X79" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="Y79" t="s">
         <v>41</v>
       </c>
       <c r="Z79" t="n">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B80" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C80" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D80" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E80" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="F80" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G80" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H80" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I80" t="s">
         <v>34</v>
@@ -8244,48 +8210,48 @@
       <c r="S80"/>
       <c r="T80"/>
       <c r="U80" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="V80" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W80" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="X80" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Y80" t="s">
         <v>41</v>
       </c>
       <c r="Z80" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B81" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C81" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D81" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E81" t="s">
         <v>187</v>
       </c>
       <c r="F81" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G81" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H81" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I81" t="s">
         <v>34</v>
@@ -8302,48 +8268,48 @@
       <c r="S81"/>
       <c r="T81"/>
       <c r="U81" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="V81" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W81" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="X81" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="Y81" t="s">
         <v>41</v>
       </c>
       <c r="Z81" t="n">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B82" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C82" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D82" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E82" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F82" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G82" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H82" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I82" t="s">
         <v>34</v>
@@ -8360,48 +8326,48 @@
       <c r="S82"/>
       <c r="T82"/>
       <c r="U82" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="V82" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W82" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="X82" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="Y82" t="s">
         <v>41</v>
       </c>
       <c r="Z82" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B83" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C83" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D83" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E83" t="s">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="F83" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G83" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H83" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I83" t="s">
         <v>34</v>
@@ -8418,48 +8384,48 @@
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="V83" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W83" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="X83" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="Y83" t="s">
         <v>41</v>
       </c>
       <c r="Z83" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B84" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C84" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D84" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E84" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F84" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G84" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H84" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I84" t="s">
         <v>34</v>
@@ -8476,48 +8442,48 @@
       <c r="S84"/>
       <c r="T84"/>
       <c r="U84" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="V84" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W84" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="X84" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="Y84" t="s">
         <v>41</v>
       </c>
       <c r="Z84" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B85" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C85" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D85" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E85" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="F85" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G85" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H85" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I85" t="s">
         <v>34</v>
@@ -8534,48 +8500,48 @@
       <c r="S85"/>
       <c r="T85"/>
       <c r="U85" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="V85" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W85" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="X85" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="Y85" t="s">
         <v>41</v>
       </c>
       <c r="Z85" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C86" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D86" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E86" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="F86" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G86" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H86" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I86" t="s">
         <v>34</v>
@@ -8592,48 +8558,48 @@
       <c r="S86"/>
       <c r="T86"/>
       <c r="U86" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="V86" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W86" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="X86" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="Y86" t="s">
         <v>41</v>
       </c>
       <c r="Z86" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B87" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C87" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D87" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E87" t="s">
-        <v>302</v>
+        <v>121</v>
       </c>
       <c r="F87" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G87" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H87" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I87" t="s">
         <v>34</v>
@@ -8650,48 +8616,48 @@
       <c r="S87"/>
       <c r="T87"/>
       <c r="U87" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="V87" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W87" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="X87" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="Y87" t="s">
         <v>41</v>
       </c>
       <c r="Z87" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B88" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C88" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D88" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E88" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F88" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G88" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H88" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I88" t="s">
         <v>34</v>
@@ -8708,48 +8674,48 @@
       <c r="S88"/>
       <c r="T88"/>
       <c r="U88" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="V88" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W88" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="X88" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Y88" t="s">
         <v>41</v>
       </c>
       <c r="Z88" t="n">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B89" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C89" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D89" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E89" t="s">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="F89" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G89" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H89" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I89" t="s">
         <v>34</v>
@@ -8766,48 +8732,48 @@
       <c r="S89"/>
       <c r="T89"/>
       <c r="U89" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="V89" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W89" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="X89" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Y89" t="s">
         <v>41</v>
       </c>
       <c r="Z89" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B90" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C90" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D90" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E90" t="s">
-        <v>315</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G90" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H90" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I90" t="s">
         <v>34</v>
@@ -8824,48 +8790,48 @@
       <c r="S90"/>
       <c r="T90"/>
       <c r="U90" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="V90" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W90" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="X90" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="Y90" t="s">
         <v>41</v>
       </c>
       <c r="Z90" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B91" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C91" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D91" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G91" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H91" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I91" t="s">
         <v>34</v>
@@ -8882,48 +8848,48 @@
       <c r="S91"/>
       <c r="T91"/>
       <c r="U91" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="V91" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W91" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="X91" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Y91" t="s">
         <v>41</v>
       </c>
       <c r="Z91" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B92" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C92" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D92" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="F92" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G92" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H92" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I92" t="s">
         <v>34</v>
@@ -8940,48 +8906,48 @@
       <c r="S92"/>
       <c r="T92"/>
       <c r="U92" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="V92" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W92" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="X92" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="Y92" t="s">
         <v>41</v>
       </c>
       <c r="Z92" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B93" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C93" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D93" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E93" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G93" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H93" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I93" t="s">
         <v>34</v>
@@ -8998,48 +8964,48 @@
       <c r="S93"/>
       <c r="T93"/>
       <c r="U93" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="V93" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W93" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="X93" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="Y93" t="s">
         <v>41</v>
       </c>
       <c r="Z93" t="n">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B94" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C94" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D94" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>307</v>
       </c>
       <c r="F94" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G94" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H94" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I94" t="s">
         <v>34</v>
@@ -9056,16 +9022,16 @@
       <c r="S94"/>
       <c r="T94"/>
       <c r="U94" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V94" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W94" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="X94" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="Y94" t="s">
         <v>41</v>
@@ -9076,28 +9042,28 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B95" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C95" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D95" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E95" t="s">
-        <v>315</v>
+        <v>199</v>
       </c>
       <c r="F95" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G95" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H95" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I95" t="s">
         <v>34</v>
@@ -9114,16 +9080,16 @@
       <c r="S95"/>
       <c r="T95"/>
       <c r="U95" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="V95" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W95" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="X95" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Y95" t="s">
         <v>41</v>
@@ -9134,28 +9100,28 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B96" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C96" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D96" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E96" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="F96" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G96" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H96" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I96" t="s">
         <v>34</v>
@@ -9172,48 +9138,48 @@
       <c r="S96"/>
       <c r="T96"/>
       <c r="U96" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="V96" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W96" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="X96" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="Y96" t="s">
         <v>41</v>
       </c>
       <c r="Z96" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B97" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C97" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D97" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E97" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G97" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H97" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I97" t="s">
         <v>34</v>
@@ -9230,48 +9196,48 @@
       <c r="S97"/>
       <c r="T97"/>
       <c r="U97" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="V97" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W97" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X97" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="Y97" t="s">
         <v>41</v>
       </c>
       <c r="Z97" t="n">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B98" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C98" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D98" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>361</v>
       </c>
       <c r="F98" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G98" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H98" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I98" t="s">
         <v>34</v>
@@ -9288,48 +9254,48 @@
       <c r="S98"/>
       <c r="T98"/>
       <c r="U98" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="V98" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W98" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="X98" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Y98" t="s">
         <v>41</v>
       </c>
       <c r="Z98" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B99" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C99" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D99" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E99" t="s">
-        <v>369</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G99" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H99" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I99" t="s">
         <v>34</v>
@@ -9346,48 +9312,48 @@
       <c r="S99"/>
       <c r="T99"/>
       <c r="U99" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="V99" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W99" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="X99" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="Y99" t="s">
         <v>41</v>
       </c>
       <c r="Z99" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B100" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C100" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D100" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F100" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G100" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H100" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I100" t="s">
         <v>34</v>
@@ -9404,48 +9370,48 @@
       <c r="S100"/>
       <c r="T100"/>
       <c r="U100" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="V100" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W100" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="X100" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="Y100" t="s">
         <v>41</v>
       </c>
       <c r="Z100" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B101" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C101" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D101" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E101" t="s">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="F101" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G101" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H101" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I101" t="s">
         <v>34</v>
@@ -9462,48 +9428,48 @@
       <c r="S101"/>
       <c r="T101"/>
       <c r="U101" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="V101" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W101" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="X101" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="Y101" t="s">
         <v>41</v>
       </c>
       <c r="Z101" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B102" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C102" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D102" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E102" t="s">
-        <v>604</v>
+        <v>307</v>
       </c>
       <c r="F102" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G102" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H102" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I102" t="s">
         <v>34</v>
@@ -9520,48 +9486,48 @@
       <c r="S102"/>
       <c r="T102"/>
       <c r="U102" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="V102" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W102" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="X102" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="Y102" t="s">
         <v>41</v>
       </c>
       <c r="Z102" t="n">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B103" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C103" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D103" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E103" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="F103" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G103" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H103" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I103" t="s">
         <v>34</v>
@@ -9578,48 +9544,48 @@
       <c r="S103"/>
       <c r="T103"/>
       <c r="U103" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="V103" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W103" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="X103" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="Y103" t="s">
         <v>41</v>
       </c>
       <c r="Z103" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B104" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C104" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D104" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E104" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="F104" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G104" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H104" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I104" t="s">
         <v>34</v>
@@ -9636,16 +9602,16 @@
       <c r="S104"/>
       <c r="T104"/>
       <c r="U104" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="V104" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W104" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="X104" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="Y104" t="s">
         <v>41</v>
@@ -9656,28 +9622,28 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B105" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C105" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D105" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E105" t="s">
-        <v>51</v>
+        <v>307</v>
       </c>
       <c r="F105" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G105" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H105" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I105" t="s">
         <v>34</v>
@@ -9694,48 +9660,48 @@
       <c r="S105"/>
       <c r="T105"/>
       <c r="U105" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="V105" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W105" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="X105" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="Y105" t="s">
         <v>41</v>
       </c>
       <c r="Z105" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B106" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C106" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D106" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E106" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="F106" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G106" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H106" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I106" t="s">
         <v>34</v>
@@ -9752,48 +9718,48 @@
       <c r="S106"/>
       <c r="T106"/>
       <c r="U106" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="V106" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W106" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="X106" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="Y106" t="s">
         <v>41</v>
       </c>
       <c r="Z106" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B107" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C107" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D107" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E107" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="F107" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G107" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H107" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I107" t="s">
         <v>34</v>
@@ -9810,16 +9776,16 @@
       <c r="S107"/>
       <c r="T107"/>
       <c r="U107" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="V107" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W107" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="X107" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="Y107" t="s">
         <v>41</v>
@@ -9830,28 +9796,28 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B108" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C108" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D108" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E108" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F108" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G108" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H108" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I108" t="s">
         <v>34</v>
@@ -9868,48 +9834,48 @@
       <c r="S108"/>
       <c r="T108"/>
       <c r="U108" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="V108" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W108" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="X108" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="Y108" t="s">
         <v>41</v>
       </c>
       <c r="Z108" t="n">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B109" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C109" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D109" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E109" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F109" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G109" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H109" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I109" t="s">
         <v>34</v>
@@ -9926,48 +9892,48 @@
       <c r="S109"/>
       <c r="T109"/>
       <c r="U109" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="V109" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W109" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="X109" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="Y109" t="s">
         <v>41</v>
       </c>
       <c r="Z109" t="n">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B110" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C110" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D110" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E110" t="s">
-        <v>82</v>
+        <v>633</v>
       </c>
       <c r="F110" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G110" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H110" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I110" t="s">
         <v>34</v>
@@ -9984,48 +9950,48 @@
       <c r="S110"/>
       <c r="T110"/>
       <c r="U110" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="V110" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W110" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="X110" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="Y110" t="s">
         <v>41</v>
       </c>
       <c r="Z110" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B111" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C111" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D111" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E111" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F111" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G111" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H111" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I111" t="s">
         <v>34</v>
@@ -10042,106 +10008,116 @@
       <c r="S111"/>
       <c r="T111"/>
       <c r="U111" t="s">
+        <v>637</v>
+      </c>
+      <c r="V111" t="s">
+        <v>444</v>
+      </c>
+      <c r="W111" t="s">
+        <v>639</v>
+      </c>
+      <c r="X111" t="s">
         <v>640</v>
-      </c>
-      <c r="V111" t="s">
-        <v>452</v>
-      </c>
-      <c r="W111" t="s">
-        <v>642</v>
-      </c>
-      <c r="X111" t="s">
-        <v>643</v>
       </c>
       <c r="Y111" t="s">
         <v>41</v>
       </c>
       <c r="Z111" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B112" t="s">
-        <v>447</v>
+        <v>641</v>
       </c>
       <c r="C112" t="s">
+        <v>642</v>
+      </c>
+      <c r="D112" t="s">
+        <v>643</v>
+      </c>
+      <c r="E112" t="s">
+        <v>237</v>
+      </c>
+      <c r="F112" t="s">
         <v>644</v>
       </c>
-      <c r="D112" t="s">
+      <c r="G112" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" t="s">
         <v>645</v>
       </c>
-      <c r="E112" t="s">
-        <v>646</v>
-      </c>
-      <c r="F112" t="s">
-        <v>450</v>
-      </c>
-      <c r="G112" t="s">
-        <v>451</v>
-      </c>
-      <c r="H112" t="s">
-        <v>447</v>
-      </c>
       <c r="I112" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
-      <c r="M112"/>
-      <c r="N112"/>
-      <c r="O112"/>
-      <c r="P112"/>
+      <c r="M112" t="s">
+        <v>646</v>
+      </c>
+      <c r="N112" t="s">
+        <v>66</v>
+      </c>
+      <c r="O112" t="s">
+        <v>647</v>
+      </c>
+      <c r="P112" t="s">
+        <v>648</v>
+      </c>
       <c r="Q112"/>
-      <c r="R112"/>
+      <c r="R112" t="s">
+        <v>46</v>
+      </c>
       <c r="S112"/>
       <c r="T112"/>
       <c r="U112" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="V112" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W112" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="X112" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="Y112" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="Z112" t="n">
-        <v>337</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B113" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C113" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D113" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E113" t="s">
-        <v>237</v>
+        <v>456</v>
       </c>
       <c r="F113" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G113" t="s">
         <v>32</v>
       </c>
       <c r="H113" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="I113" t="s">
         <v>53</v>
@@ -10149,18 +10125,10 @@
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113"/>
-      <c r="M113" t="s">
-        <v>654</v>
-      </c>
-      <c r="N113" t="s">
-        <v>66</v>
-      </c>
-      <c r="O113" t="s">
-        <v>655</v>
-      </c>
-      <c r="P113" t="s">
-        <v>656</v>
-      </c>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
       <c r="Q113"/>
       <c r="R113" t="s">
         <v>46</v>
@@ -10168,48 +10136,48 @@
       <c r="S113"/>
       <c r="T113"/>
       <c r="U113" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="V113" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W113" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="X113" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="Y113" t="s">
         <v>57</v>
       </c>
       <c r="Z113" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B114" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C114" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D114" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E114" t="s">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="F114" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
       </c>
       <c r="H114" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="I114" t="s">
         <v>53</v>
@@ -10223,53 +10191,53 @@
       <c r="P114"/>
       <c r="Q114"/>
       <c r="R114" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="S114"/>
       <c r="T114"/>
       <c r="U114" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="V114" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W114" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="X114" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="Y114" t="s">
         <v>57</v>
       </c>
       <c r="Z114" t="n">
-        <v>52</v>
+        <v>298</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B115" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C115" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D115" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E115" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F115" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
       </c>
       <c r="H115" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="I115" t="s">
         <v>53</v>
@@ -10288,48 +10256,48 @@
       <c r="S115"/>
       <c r="T115"/>
       <c r="U115" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="V115" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W115" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="X115" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="Y115" t="s">
         <v>57</v>
       </c>
       <c r="Z115" t="n">
-        <v>299</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B116" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C116" t="s">
+        <v>664</v>
+      </c>
+      <c r="D116" t="s">
+        <v>665</v>
+      </c>
+      <c r="E116" t="s">
+        <v>361</v>
+      </c>
+      <c r="F116" t="s">
+        <v>666</v>
+      </c>
+      <c r="G116" t="s">
         <v>667</v>
       </c>
-      <c r="D116" t="s">
-        <v>668</v>
-      </c>
-      <c r="E116" t="s">
-        <v>61</v>
-      </c>
-      <c r="F116" t="s">
-        <v>652</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
       <c r="H116" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="I116" t="s">
         <v>53</v>
@@ -10337,10 +10305,18 @@
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116"/>
-      <c r="M116"/>
-      <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116"/>
+      <c r="M116" t="s">
+        <v>668</v>
+      </c>
+      <c r="N116" t="s">
+        <v>669</v>
+      </c>
+      <c r="O116" t="s">
+        <v>670</v>
+      </c>
+      <c r="P116" t="s">
+        <v>671</v>
+      </c>
       <c r="Q116"/>
       <c r="R116" t="s">
         <v>226</v>
@@ -10348,48 +10324,48 @@
       <c r="S116"/>
       <c r="T116"/>
       <c r="U116" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="V116" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W116" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="X116" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="Y116" t="s">
         <v>57</v>
       </c>
       <c r="Z116" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B117" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C117" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D117" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E117" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F117" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G117" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="H117" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="I117" t="s">
         <v>53</v>
@@ -10401,13 +10377,13 @@
         <v>676</v>
       </c>
       <c r="N117" t="s">
+        <v>669</v>
+      </c>
+      <c r="O117" t="s">
         <v>677</v>
       </c>
-      <c r="O117" t="s">
+      <c r="P117" t="s">
         <v>678</v>
-      </c>
-      <c r="P117" t="s">
-        <v>679</v>
       </c>
       <c r="Q117"/>
       <c r="R117" t="s">
@@ -10416,48 +10392,48 @@
       <c r="S117"/>
       <c r="T117"/>
       <c r="U117" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="V117" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W117" t="s">
+        <v>679</v>
+      </c>
+      <c r="X117" t="s">
         <v>680</v>
-      </c>
-      <c r="X117" t="s">
-        <v>681</v>
       </c>
       <c r="Y117" t="s">
         <v>57</v>
       </c>
       <c r="Z117" t="n">
-        <v>25</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B118" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C118" t="s">
+        <v>681</v>
+      </c>
+      <c r="D118" t="s">
         <v>682</v>
       </c>
-      <c r="D118" t="s">
-        <v>683</v>
-      </c>
       <c r="E118" t="s">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G118" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="H118" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="I118" t="s">
         <v>53</v>
@@ -10466,16 +10442,16 @@
       <c r="K118"/>
       <c r="L118"/>
       <c r="M118" t="s">
+        <v>683</v>
+      </c>
+      <c r="N118" t="s">
+        <v>66</v>
+      </c>
+      <c r="O118" t="s">
         <v>684</v>
       </c>
-      <c r="N118" t="s">
-        <v>677</v>
-      </c>
-      <c r="O118" t="s">
+      <c r="P118" t="s">
         <v>685</v>
-      </c>
-      <c r="P118" t="s">
-        <v>686</v>
       </c>
       <c r="Q118"/>
       <c r="R118" t="s">
@@ -10484,48 +10460,48 @@
       <c r="S118"/>
       <c r="T118"/>
       <c r="U118" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="V118" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W118" t="s">
+        <v>686</v>
+      </c>
+      <c r="X118" t="s">
         <v>687</v>
-      </c>
-      <c r="X118" t="s">
-        <v>688</v>
       </c>
       <c r="Y118" t="s">
         <v>57</v>
       </c>
       <c r="Z118" t="n">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B119" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C119" t="s">
+        <v>688</v>
+      </c>
+      <c r="D119" t="s">
         <v>689</v>
       </c>
-      <c r="D119" t="s">
-        <v>690</v>
-      </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="F119" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G119" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="H119" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="I119" t="s">
         <v>53</v>
@@ -10534,16 +10510,16 @@
       <c r="K119"/>
       <c r="L119"/>
       <c r="M119" t="s">
+        <v>647</v>
+      </c>
+      <c r="N119" t="s">
+        <v>669</v>
+      </c>
+      <c r="O119" t="s">
+        <v>690</v>
+      </c>
+      <c r="P119" t="s">
         <v>691</v>
-      </c>
-      <c r="N119" t="s">
-        <v>66</v>
-      </c>
-      <c r="O119" t="s">
-        <v>692</v>
-      </c>
-      <c r="P119" t="s">
-        <v>693</v>
       </c>
       <c r="Q119"/>
       <c r="R119" t="s">
@@ -10552,48 +10528,48 @@
       <c r="S119"/>
       <c r="T119"/>
       <c r="U119" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V119" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W119" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="X119" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="Y119" t="s">
         <v>57</v>
       </c>
       <c r="Z119" t="n">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B120" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C120" t="s">
+        <v>694</v>
+      </c>
+      <c r="D120" t="s">
+        <v>695</v>
+      </c>
+      <c r="E120" t="s">
         <v>696</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
+        <v>666</v>
+      </c>
+      <c r="G120" t="s">
         <v>697</v>
       </c>
-      <c r="E120" t="s">
-        <v>199</v>
-      </c>
-      <c r="F120" t="s">
-        <v>674</v>
-      </c>
-      <c r="G120" t="s">
-        <v>675</v>
-      </c>
       <c r="H120" t="s">
-        <v>653</v>
+        <v>698</v>
       </c>
       <c r="I120" t="s">
         <v>53</v>
@@ -10602,16 +10578,16 @@
       <c r="K120"/>
       <c r="L120"/>
       <c r="M120" t="s">
-        <v>655</v>
+        <v>699</v>
       </c>
       <c r="N120" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="O120" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="P120" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="Q120"/>
       <c r="R120" t="s">
@@ -10620,48 +10596,48 @@
       <c r="S120"/>
       <c r="T120"/>
       <c r="U120" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="V120" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W120" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="X120" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="Y120" t="s">
         <v>57</v>
       </c>
       <c r="Z120" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B121" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C121" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D121" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E121" t="s">
-        <v>704</v>
+        <v>61</v>
       </c>
       <c r="F121" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G121" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H121" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="I121" t="s">
         <v>53</v>
@@ -10673,7 +10649,7 @@
         <v>707</v>
       </c>
       <c r="N121" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="O121" t="s">
         <v>708</v>
@@ -10691,7 +10667,7 @@
         <v>710</v>
       </c>
       <c r="V121" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W121" t="s">
         <v>711</v>
@@ -10703,15 +10679,15 @@
         <v>57</v>
       </c>
       <c r="Z121" t="n">
-        <v>181</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B122" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C122" t="s">
         <v>713</v>
@@ -10720,34 +10696,34 @@
         <v>714</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>674</v>
+        <v>715</v>
       </c>
       <c r="G122" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="H122" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="I122" t="s">
-        <v>53</v>
+        <v>717</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122"/>
       <c r="M122" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="N122" t="s">
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="O122" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="P122" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="Q122"/>
       <c r="R122" t="s">
@@ -10756,98 +10732,98 @@
       <c r="S122"/>
       <c r="T122"/>
       <c r="U122" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="V122" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W122" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="X122" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="Y122" t="s">
-        <v>57</v>
+        <v>725</v>
       </c>
       <c r="Z122" t="n">
-        <v>37</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B123" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="C123" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="D123" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F123" t="s">
-        <v>723</v>
+        <v>644</v>
       </c>
       <c r="G123" t="s">
-        <v>724</v>
+        <v>32</v>
       </c>
       <c r="H123" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
       <c r="I123" t="s">
-        <v>725</v>
+        <v>53</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
       <c r="M123" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="N123" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="O123" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="P123" t="s">
-        <v>729</v>
+        <v>85</v>
       </c>
       <c r="Q123"/>
       <c r="R123" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="S123"/>
       <c r="T123"/>
       <c r="U123" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="V123" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W123" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="X123" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="Y123" t="s">
-        <v>733</v>
+        <v>57</v>
       </c>
       <c r="Z123" t="n">
-        <v>311</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B124" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C124" t="s">
         <v>735</v>
@@ -10859,13 +10835,13 @@
         <v>113</v>
       </c>
       <c r="F124" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G124" t="s">
         <v>32</v>
       </c>
       <c r="H124" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="I124" t="s">
         <v>53</v>
@@ -10874,18 +10850,20 @@
       <c r="K124"/>
       <c r="L124"/>
       <c r="M124" t="s">
+        <v>737</v>
+      </c>
+      <c r="N124" t="s">
+        <v>66</v>
+      </c>
+      <c r="O124" t="s">
+        <v>101</v>
+      </c>
+      <c r="P124" t="s">
         <v>738</v>
       </c>
-      <c r="N124" t="s">
+      <c r="Q124" t="s">
         <v>739</v>
       </c>
-      <c r="O124" t="s">
-        <v>740</v>
-      </c>
-      <c r="P124" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q124"/>
       <c r="R124" t="s">
         <v>46</v>
       </c>
@@ -10895,45 +10873,45 @@
         <v>736</v>
       </c>
       <c r="V124" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W124" t="s">
+        <v>740</v>
+      </c>
+      <c r="X124" t="s">
         <v>741</v>
-      </c>
-      <c r="X124" t="s">
-        <v>742</v>
       </c>
       <c r="Y124" t="s">
         <v>57</v>
       </c>
       <c r="Z124" t="n">
-        <v>142</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B125" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C125" t="s">
+        <v>742</v>
+      </c>
+      <c r="D125" t="s">
         <v>743</v>
       </c>
-      <c r="D125" t="s">
-        <v>744</v>
-      </c>
       <c r="E125" t="s">
-        <v>113</v>
+        <v>696</v>
       </c>
       <c r="F125" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G125" t="s">
         <v>32</v>
       </c>
       <c r="H125" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="I125" t="s">
         <v>53</v>
@@ -10942,19 +10920,19 @@
       <c r="K125"/>
       <c r="L125"/>
       <c r="M125" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N125" t="s">
         <v>66</v>
       </c>
       <c r="O125" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="P125" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q125" t="s">
         <v>746</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>747</v>
       </c>
       <c r="R125" t="s">
         <v>46</v>
@@ -10962,10 +10940,10 @@
       <c r="S125"/>
       <c r="T125"/>
       <c r="U125" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="V125" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W125" t="s">
         <v>748</v>
@@ -10977,15 +10955,15 @@
         <v>57</v>
       </c>
       <c r="Z125" t="n">
-        <v>326</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B126" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C126" t="s">
         <v>750</v>
@@ -10994,16 +10972,16 @@
         <v>751</v>
       </c>
       <c r="E126" t="s">
-        <v>704</v>
+        <v>752</v>
       </c>
       <c r="F126" t="s">
-        <v>652</v>
+        <v>753</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>754</v>
       </c>
       <c r="H126" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="I126" t="s">
         <v>53</v>
@@ -11012,68 +10990,66 @@
       <c r="K126"/>
       <c r="L126"/>
       <c r="M126" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="N126" t="s">
-        <v>66</v>
+        <v>669</v>
       </c>
       <c r="O126" t="s">
-        <v>67</v>
+        <v>756</v>
       </c>
       <c r="P126" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>754</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="Q126"/>
       <c r="R126" t="s">
         <v>46</v>
       </c>
       <c r="S126"/>
       <c r="T126"/>
       <c r="U126" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="V126" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W126" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="X126" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="Y126" t="s">
         <v>57</v>
       </c>
       <c r="Z126" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B127" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C127" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D127" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E127" t="s">
-        <v>760</v>
+        <v>74</v>
       </c>
       <c r="F127" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="G127" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="H127" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="I127" t="s">
         <v>53</v>
@@ -11082,16 +11058,16 @@
       <c r="K127"/>
       <c r="L127"/>
       <c r="M127" t="s">
+        <v>131</v>
+      </c>
+      <c r="N127" t="s">
+        <v>66</v>
+      </c>
+      <c r="O127" t="s">
+        <v>762</v>
+      </c>
+      <c r="P127" t="s">
         <v>763</v>
-      </c>
-      <c r="N127" t="s">
-        <v>677</v>
-      </c>
-      <c r="O127" t="s">
-        <v>764</v>
-      </c>
-      <c r="P127" t="s">
-        <v>765</v>
       </c>
       <c r="Q127"/>
       <c r="R127" t="s">
@@ -11100,48 +11076,48 @@
       <c r="S127"/>
       <c r="T127"/>
       <c r="U127" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="V127" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W127" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="X127" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="Y127" t="s">
         <v>57</v>
       </c>
       <c r="Z127" t="n">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B128" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C128" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D128" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E128" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="F128" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="G128" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="H128" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="I128" t="s">
         <v>53</v>
@@ -11150,16 +11126,16 @@
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128" t="s">
-        <v>131</v>
+        <v>768</v>
       </c>
       <c r="N128" t="s">
-        <v>66</v>
+        <v>669</v>
       </c>
       <c r="O128" t="s">
+        <v>769</v>
+      </c>
+      <c r="P128" t="s">
         <v>770</v>
-      </c>
-      <c r="P128" t="s">
-        <v>771</v>
       </c>
       <c r="Q128"/>
       <c r="R128" t="s">
@@ -11168,48 +11144,48 @@
       <c r="S128"/>
       <c r="T128"/>
       <c r="U128" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="V128" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W128" t="s">
+        <v>771</v>
+      </c>
+      <c r="X128" t="s">
         <v>772</v>
-      </c>
-      <c r="X128" t="s">
-        <v>773</v>
       </c>
       <c r="Y128" t="s">
         <v>57</v>
       </c>
       <c r="Z128" t="n">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B129" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C129" t="s">
+        <v>773</v>
+      </c>
+      <c r="D129" t="s">
         <v>774</v>
       </c>
-      <c r="D129" t="s">
-        <v>775</v>
-      </c>
       <c r="E129" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="F129" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="G129" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="H129" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="I129" t="s">
         <v>53</v>
@@ -11218,16 +11194,16 @@
       <c r="K129"/>
       <c r="L129"/>
       <c r="M129" t="s">
+        <v>775</v>
+      </c>
+      <c r="N129" t="s">
+        <v>669</v>
+      </c>
+      <c r="O129" t="s">
         <v>776</v>
       </c>
-      <c r="N129" t="s">
-        <v>677</v>
-      </c>
-      <c r="O129" t="s">
+      <c r="P129" t="s">
         <v>777</v>
-      </c>
-      <c r="P129" t="s">
-        <v>778</v>
       </c>
       <c r="Q129"/>
       <c r="R129" t="s">
@@ -11236,10 +11212,10 @@
       <c r="S129"/>
       <c r="T129"/>
       <c r="U129" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="V129" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W129" t="s">
         <v>779</v>
@@ -11251,33 +11227,33 @@
         <v>57</v>
       </c>
       <c r="Z129" t="n">
-        <v>262</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B130" t="s">
-        <v>734</v>
+        <v>781</v>
       </c>
       <c r="C130" t="s">
+        <v>782</v>
+      </c>
+      <c r="D130" t="s">
+        <v>314</v>
+      </c>
+      <c r="E130" t="s">
+        <v>237</v>
+      </c>
+      <c r="F130" t="s">
+        <v>783</v>
+      </c>
+      <c r="G130" t="s">
+        <v>32</v>
+      </c>
+      <c r="H130" t="s">
         <v>781</v>
-      </c>
-      <c r="D130" t="s">
-        <v>782</v>
-      </c>
-      <c r="E130" t="s">
-        <v>268</v>
-      </c>
-      <c r="F130" t="s">
-        <v>761</v>
-      </c>
-      <c r="G130" t="s">
-        <v>762</v>
-      </c>
-      <c r="H130" t="s">
-        <v>737</v>
       </c>
       <c r="I130" t="s">
         <v>53</v>
@@ -11286,66 +11262,60 @@
       <c r="K130"/>
       <c r="L130"/>
       <c r="M130" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N130" t="s">
-        <v>677</v>
-      </c>
-      <c r="O130" t="s">
-        <v>784</v>
-      </c>
-      <c r="P130" t="s">
-        <v>785</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="O130"/>
+      <c r="P130"/>
       <c r="Q130"/>
-      <c r="R130" t="s">
-        <v>46</v>
-      </c>
+      <c r="R130"/>
       <c r="S130"/>
       <c r="T130"/>
       <c r="U130" t="s">
+        <v>314</v>
+      </c>
+      <c r="V130" t="s">
+        <v>444</v>
+      </c>
+      <c r="W130" t="s">
+        <v>785</v>
+      </c>
+      <c r="X130" t="s">
         <v>786</v>
-      </c>
-      <c r="V130" t="s">
-        <v>452</v>
-      </c>
-      <c r="W130" t="s">
-        <v>787</v>
-      </c>
-      <c r="X130" t="s">
-        <v>788</v>
       </c>
       <c r="Y130" t="s">
         <v>57</v>
       </c>
       <c r="Z130" t="n">
-        <v>310</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B131" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C131" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D131" t="s">
-        <v>322</v>
+        <v>689</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="F131" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G131" t="s">
         <v>32</v>
       </c>
       <c r="H131" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I131" t="s">
         <v>53</v>
@@ -11354,10 +11324,10 @@
       <c r="K131"/>
       <c r="L131"/>
       <c r="M131" t="s">
-        <v>792</v>
+        <v>746</v>
       </c>
       <c r="N131" t="s">
-        <v>677</v>
+        <v>788</v>
       </c>
       <c r="O131"/>
       <c r="P131"/>
@@ -11366,48 +11336,48 @@
       <c r="S131"/>
       <c r="T131"/>
       <c r="U131" t="s">
-        <v>322</v>
+        <v>689</v>
       </c>
       <c r="V131" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W131" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="X131" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="Y131" t="s">
         <v>57</v>
       </c>
       <c r="Z131" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B132" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C132" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D132" t="s">
-        <v>697</v>
+        <v>792</v>
       </c>
       <c r="E132" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="F132" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G132" t="s">
         <v>32</v>
       </c>
       <c r="H132" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I132" t="s">
         <v>53</v>
@@ -11416,10 +11386,10 @@
       <c r="K132"/>
       <c r="L132"/>
       <c r="M132" t="s">
-        <v>754</v>
+        <v>793</v>
       </c>
       <c r="N132" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="O132"/>
       <c r="P132"/>
@@ -11428,48 +11398,48 @@
       <c r="S132"/>
       <c r="T132"/>
       <c r="U132" t="s">
-        <v>697</v>
+        <v>792</v>
       </c>
       <c r="V132" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W132" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="X132" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="Y132" t="s">
         <v>57</v>
       </c>
       <c r="Z132" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B133" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C133" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D133" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E133" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
       </c>
       <c r="H133" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I133" t="s">
         <v>53</v>
@@ -11478,10 +11448,10 @@
       <c r="K133"/>
       <c r="L133"/>
       <c r="M133" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="N133" t="s">
-        <v>796</v>
+        <v>669</v>
       </c>
       <c r="O133"/>
       <c r="P133"/>
@@ -11490,48 +11460,48 @@
       <c r="S133"/>
       <c r="T133"/>
       <c r="U133" t="s">
+        <v>797</v>
+      </c>
+      <c r="V133" t="s">
+        <v>444</v>
+      </c>
+      <c r="W133" t="s">
+        <v>799</v>
+      </c>
+      <c r="X133" t="s">
         <v>800</v>
-      </c>
-      <c r="V133" t="s">
-        <v>452</v>
-      </c>
-      <c r="W133" t="s">
-        <v>802</v>
-      </c>
-      <c r="X133" t="s">
-        <v>803</v>
       </c>
       <c r="Y133" t="s">
         <v>57</v>
       </c>
       <c r="Z133" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B134" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C134" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D134" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="F134" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G134" t="s">
         <v>32</v>
       </c>
       <c r="H134" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I134" t="s">
         <v>53</v>
@@ -11540,10 +11510,10 @@
       <c r="K134"/>
       <c r="L134"/>
       <c r="M134" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="N134" t="s">
-        <v>677</v>
+        <v>66</v>
       </c>
       <c r="O134"/>
       <c r="P134"/>
@@ -11552,48 +11522,48 @@
       <c r="S134"/>
       <c r="T134"/>
       <c r="U134" t="s">
+        <v>802</v>
+      </c>
+      <c r="V134" t="s">
+        <v>444</v>
+      </c>
+      <c r="W134" t="s">
+        <v>804</v>
+      </c>
+      <c r="X134" t="s">
         <v>805</v>
-      </c>
-      <c r="V134" t="s">
-        <v>452</v>
-      </c>
-      <c r="W134" t="s">
-        <v>807</v>
-      </c>
-      <c r="X134" t="s">
-        <v>808</v>
       </c>
       <c r="Y134" t="s">
         <v>57</v>
       </c>
       <c r="Z134" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B135" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C135" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D135" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E135" t="s">
-        <v>171</v>
+        <v>808</v>
       </c>
       <c r="F135" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G135" t="s">
         <v>32</v>
       </c>
       <c r="H135" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I135" t="s">
         <v>53</v>
@@ -11602,7 +11572,7 @@
       <c r="K135"/>
       <c r="L135"/>
       <c r="M135" t="s">
-        <v>811</v>
+        <v>744</v>
       </c>
       <c r="N135" t="s">
         <v>66</v>
@@ -11614,48 +11584,48 @@
       <c r="S135"/>
       <c r="T135"/>
       <c r="U135" t="s">
+        <v>807</v>
+      </c>
+      <c r="V135" t="s">
+        <v>444</v>
+      </c>
+      <c r="W135" t="s">
+        <v>809</v>
+      </c>
+      <c r="X135" t="s">
         <v>810</v>
-      </c>
-      <c r="V135" t="s">
-        <v>452</v>
-      </c>
-      <c r="W135" t="s">
-        <v>812</v>
-      </c>
-      <c r="X135" t="s">
-        <v>813</v>
       </c>
       <c r="Y135" t="s">
         <v>57</v>
       </c>
       <c r="Z135" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B136" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C136" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D136" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E136" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="F136" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G136" t="s">
         <v>32</v>
       </c>
       <c r="H136" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I136" t="s">
         <v>53</v>
@@ -11664,10 +11634,10 @@
       <c r="K136"/>
       <c r="L136"/>
       <c r="M136" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="N136" t="s">
-        <v>66</v>
+        <v>813</v>
       </c>
       <c r="O136"/>
       <c r="P136"/>
@@ -11676,48 +11646,48 @@
       <c r="S136"/>
       <c r="T136"/>
       <c r="U136" t="s">
+        <v>812</v>
+      </c>
+      <c r="V136" t="s">
+        <v>444</v>
+      </c>
+      <c r="W136" t="s">
+        <v>814</v>
+      </c>
+      <c r="X136" t="s">
         <v>815</v>
-      </c>
-      <c r="V136" t="s">
-        <v>452</v>
-      </c>
-      <c r="W136" t="s">
-        <v>817</v>
-      </c>
-      <c r="X136" t="s">
-        <v>818</v>
       </c>
       <c r="Y136" t="s">
         <v>57</v>
       </c>
       <c r="Z136" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B137" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C137" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D137" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E137" t="s">
-        <v>816</v>
+        <v>292</v>
       </c>
       <c r="F137" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G137" t="s">
         <v>32</v>
       </c>
       <c r="H137" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I137" t="s">
         <v>53</v>
@@ -11726,10 +11696,10 @@
       <c r="K137"/>
       <c r="L137"/>
       <c r="M137" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="N137" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="O137"/>
       <c r="P137"/>
@@ -11738,48 +11708,48 @@
       <c r="S137"/>
       <c r="T137"/>
       <c r="U137" t="s">
+        <v>817</v>
+      </c>
+      <c r="V137" t="s">
+        <v>444</v>
+      </c>
+      <c r="W137" t="s">
         <v>820</v>
       </c>
-      <c r="V137" t="s">
-        <v>452</v>
-      </c>
-      <c r="W137" t="s">
-        <v>822</v>
-      </c>
       <c r="X137" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="Y137" t="s">
         <v>57</v>
       </c>
       <c r="Z137" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B138" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C138" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D138" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E138" t="s">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="F138" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G138" t="s">
         <v>32</v>
       </c>
       <c r="H138" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I138" t="s">
         <v>53</v>
@@ -11788,10 +11758,10 @@
       <c r="K138"/>
       <c r="L138"/>
       <c r="M138" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="N138" t="s">
-        <v>827</v>
+        <v>66</v>
       </c>
       <c r="O138"/>
       <c r="P138"/>
@@ -11800,48 +11770,48 @@
       <c r="S138"/>
       <c r="T138"/>
       <c r="U138" t="s">
+        <v>823</v>
+      </c>
+      <c r="V138" t="s">
+        <v>444</v>
+      </c>
+      <c r="W138" t="s">
         <v>825</v>
       </c>
-      <c r="V138" t="s">
-        <v>452</v>
-      </c>
-      <c r="W138" t="s">
-        <v>828</v>
-      </c>
       <c r="X138" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="Y138" t="s">
         <v>57</v>
       </c>
       <c r="Z138" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B139" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C139" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D139" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E139" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="F139" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G139" t="s">
         <v>32</v>
       </c>
       <c r="H139" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I139" t="s">
         <v>53</v>
@@ -11850,10 +11820,10 @@
       <c r="K139"/>
       <c r="L139"/>
       <c r="M139" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="N139" t="s">
-        <v>66</v>
+        <v>788</v>
       </c>
       <c r="O139"/>
       <c r="P139"/>
@@ -11862,48 +11832,48 @@
       <c r="S139"/>
       <c r="T139"/>
       <c r="U139" t="s">
+        <v>828</v>
+      </c>
+      <c r="V139" t="s">
+        <v>444</v>
+      </c>
+      <c r="W139" t="s">
+        <v>830</v>
+      </c>
+      <c r="X139" t="s">
         <v>831</v>
-      </c>
-      <c r="V139" t="s">
-        <v>452</v>
-      </c>
-      <c r="W139" t="s">
-        <v>833</v>
-      </c>
-      <c r="X139" t="s">
-        <v>834</v>
       </c>
       <c r="Y139" t="s">
         <v>57</v>
       </c>
       <c r="Z139" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B140" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C140" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D140" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E140" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="F140" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
       </c>
       <c r="H140" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I140" t="s">
         <v>53</v>
@@ -11912,10 +11882,10 @@
       <c r="K140"/>
       <c r="L140"/>
       <c r="M140" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="N140" t="s">
-        <v>796</v>
+        <v>669</v>
       </c>
       <c r="O140"/>
       <c r="P140"/>
@@ -11924,48 +11894,48 @@
       <c r="S140"/>
       <c r="T140"/>
       <c r="U140" t="s">
+        <v>833</v>
+      </c>
+      <c r="V140" t="s">
+        <v>444</v>
+      </c>
+      <c r="W140" t="s">
+        <v>835</v>
+      </c>
+      <c r="X140" t="s">
         <v>836</v>
-      </c>
-      <c r="V140" t="s">
-        <v>452</v>
-      </c>
-      <c r="W140" t="s">
-        <v>838</v>
-      </c>
-      <c r="X140" t="s">
-        <v>839</v>
       </c>
       <c r="Y140" t="s">
         <v>57</v>
       </c>
       <c r="Z140" t="n">
-        <v>133</v>
+        <v>223</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B141" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C141" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D141" t="s">
-        <v>841</v>
+        <v>591</v>
       </c>
       <c r="E141" t="s">
-        <v>315</v>
+        <v>121</v>
       </c>
       <c r="F141" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G141" t="s">
         <v>32</v>
       </c>
       <c r="H141" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I141" t="s">
         <v>53</v>
@@ -11974,10 +11944,10 @@
       <c r="K141"/>
       <c r="L141"/>
       <c r="M141" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="N141" t="s">
-        <v>677</v>
+        <v>839</v>
       </c>
       <c r="O141"/>
       <c r="P141"/>
@@ -11986,48 +11956,48 @@
       <c r="S141"/>
       <c r="T141"/>
       <c r="U141" t="s">
+        <v>591</v>
+      </c>
+      <c r="V141" t="s">
+        <v>444</v>
+      </c>
+      <c r="W141" t="s">
+        <v>840</v>
+      </c>
+      <c r="X141" t="s">
         <v>841</v>
-      </c>
-      <c r="V141" t="s">
-        <v>452</v>
-      </c>
-      <c r="W141" t="s">
-        <v>843</v>
-      </c>
-      <c r="X141" t="s">
-        <v>844</v>
       </c>
       <c r="Y141" t="s">
         <v>57</v>
       </c>
       <c r="Z141" t="n">
-        <v>224</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B142" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C142" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D142" t="s">
-        <v>599</v>
+        <v>843</v>
       </c>
       <c r="E142" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="F142" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G142" t="s">
         <v>32</v>
       </c>
       <c r="H142" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I142" t="s">
         <v>53</v>
@@ -12036,10 +12006,10 @@
       <c r="K142"/>
       <c r="L142"/>
       <c r="M142" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="N142" t="s">
-        <v>847</v>
+        <v>788</v>
       </c>
       <c r="O142"/>
       <c r="P142"/>
@@ -12048,48 +12018,48 @@
       <c r="S142"/>
       <c r="T142"/>
       <c r="U142" t="s">
-        <v>599</v>
+        <v>843</v>
       </c>
       <c r="V142" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W142" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="X142" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="Y142" t="s">
         <v>57</v>
       </c>
       <c r="Z142" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B143" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C143" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D143" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E143" t="s">
-        <v>171</v>
+        <v>808</v>
       </c>
       <c r="F143" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G143" t="s">
         <v>32</v>
       </c>
       <c r="H143" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I143" t="s">
         <v>53</v>
@@ -12098,10 +12068,10 @@
       <c r="K143"/>
       <c r="L143"/>
       <c r="M143" t="s">
-        <v>852</v>
+        <v>648</v>
       </c>
       <c r="N143" t="s">
-        <v>796</v>
+        <v>669</v>
       </c>
       <c r="O143"/>
       <c r="P143"/>
@@ -12110,48 +12080,48 @@
       <c r="S143"/>
       <c r="T143"/>
       <c r="U143" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="V143" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W143" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="X143" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="Y143" t="s">
         <v>57</v>
       </c>
       <c r="Z143" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B144" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C144" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D144" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E144" t="s">
-        <v>816</v>
+        <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G144" t="s">
         <v>32</v>
       </c>
       <c r="H144" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I144" t="s">
         <v>53</v>
@@ -12160,10 +12130,10 @@
       <c r="K144"/>
       <c r="L144"/>
       <c r="M144" t="s">
-        <v>656</v>
+        <v>853</v>
       </c>
       <c r="N144" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="O144"/>
       <c r="P144"/>
@@ -12172,48 +12142,48 @@
       <c r="S144"/>
       <c r="T144"/>
       <c r="U144" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="V144" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W144" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="X144" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="Y144" t="s">
         <v>57</v>
       </c>
       <c r="Z144" t="n">
-        <v>280</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B145" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C145" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D145" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>858</v>
       </c>
       <c r="F145" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G145" t="s">
         <v>32</v>
       </c>
       <c r="H145" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I145" t="s">
         <v>53</v>
@@ -12222,10 +12192,10 @@
       <c r="K145"/>
       <c r="L145"/>
       <c r="M145" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N145" t="s">
-        <v>677</v>
+        <v>66</v>
       </c>
       <c r="O145"/>
       <c r="P145"/>
@@ -12234,48 +12204,48 @@
       <c r="S145"/>
       <c r="T145"/>
       <c r="U145" t="s">
+        <v>857</v>
+      </c>
+      <c r="V145" t="s">
+        <v>444</v>
+      </c>
+      <c r="W145" t="s">
         <v>860</v>
       </c>
-      <c r="V145" t="s">
-        <v>452</v>
-      </c>
-      <c r="W145" t="s">
-        <v>862</v>
-      </c>
       <c r="X145" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="Y145" t="s">
         <v>57</v>
       </c>
       <c r="Z145" t="n">
-        <v>302</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B146" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C146" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D146" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E146" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="F146" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G146" t="s">
         <v>32</v>
       </c>
       <c r="H146" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I146" t="s">
         <v>53</v>
@@ -12284,10 +12254,10 @@
       <c r="K146"/>
       <c r="L146"/>
       <c r="M146" t="s">
-        <v>867</v>
+        <v>784</v>
       </c>
       <c r="N146" t="s">
-        <v>66</v>
+        <v>864</v>
       </c>
       <c r="O146"/>
       <c r="P146"/>
@@ -12296,48 +12266,48 @@
       <c r="S146"/>
       <c r="T146"/>
       <c r="U146" t="s">
+        <v>863</v>
+      </c>
+      <c r="V146" t="s">
+        <v>444</v>
+      </c>
+      <c r="W146" t="s">
         <v>865</v>
       </c>
-      <c r="V146" t="s">
-        <v>452</v>
-      </c>
-      <c r="W146" t="s">
-        <v>868</v>
-      </c>
       <c r="X146" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="Y146" t="s">
         <v>57</v>
       </c>
       <c r="Z146" t="n">
-        <v>38</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B147" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C147" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D147" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E147" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="F147" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G147" t="s">
         <v>32</v>
       </c>
       <c r="H147" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I147" t="s">
         <v>53</v>
@@ -12346,10 +12316,10 @@
       <c r="K147"/>
       <c r="L147"/>
       <c r="M147" t="s">
-        <v>792</v>
+        <v>768</v>
       </c>
       <c r="N147" t="s">
-        <v>872</v>
+        <v>813</v>
       </c>
       <c r="O147"/>
       <c r="P147"/>
@@ -12358,48 +12328,48 @@
       <c r="S147"/>
       <c r="T147"/>
       <c r="U147" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="V147" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W147" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="X147" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="Y147" t="s">
         <v>57</v>
       </c>
       <c r="Z147" t="n">
-        <v>191</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B148" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C148" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D148" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="E148" t="s">
-        <v>866</v>
+        <v>193</v>
       </c>
       <c r="F148" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G148" t="s">
         <v>32</v>
       </c>
       <c r="H148" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I148" t="s">
         <v>53</v>
@@ -12408,10 +12378,10 @@
       <c r="K148"/>
       <c r="L148"/>
       <c r="M148" t="s">
-        <v>776</v>
+        <v>873</v>
       </c>
       <c r="N148" t="s">
-        <v>821</v>
+        <v>294</v>
       </c>
       <c r="O148"/>
       <c r="P148"/>
@@ -12420,48 +12390,48 @@
       <c r="S148"/>
       <c r="T148"/>
       <c r="U148" t="s">
+        <v>874</v>
+      </c>
+      <c r="V148" t="s">
+        <v>444</v>
+      </c>
+      <c r="W148" t="s">
+        <v>875</v>
+      </c>
+      <c r="X148" t="s">
         <v>876</v>
-      </c>
-      <c r="V148" t="s">
-        <v>452</v>
-      </c>
-      <c r="W148" t="s">
-        <v>877</v>
-      </c>
-      <c r="X148" t="s">
-        <v>878</v>
       </c>
       <c r="Y148" t="s">
         <v>57</v>
       </c>
       <c r="Z148" t="n">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B149" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C149" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D149" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E149" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="F149" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G149" t="s">
         <v>32</v>
       </c>
       <c r="H149" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I149" t="s">
         <v>53</v>
@@ -12470,10 +12440,10 @@
       <c r="K149"/>
       <c r="L149"/>
       <c r="M149" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="N149" t="s">
-        <v>296</v>
+        <v>66</v>
       </c>
       <c r="O149"/>
       <c r="P149"/>
@@ -12482,51 +12452,51 @@
       <c r="S149"/>
       <c r="T149"/>
       <c r="U149" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="V149" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="W149" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="X149" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="Y149" t="s">
         <v>57</v>
       </c>
       <c r="Z149" t="n">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>446</v>
+        <v>882</v>
       </c>
       <c r="B150" t="s">
-        <v>789</v>
+        <v>882</v>
       </c>
       <c r="C150" t="s">
+        <v>883</v>
+      </c>
+      <c r="D150" t="s">
+        <v>884</v>
+      </c>
+      <c r="E150" t="s">
+        <v>199</v>
+      </c>
+      <c r="F150" t="s">
         <v>885</v>
       </c>
-      <c r="D150" t="s">
+      <c r="G150" t="s">
         <v>886</v>
       </c>
-      <c r="E150" t="s">
-        <v>171</v>
-      </c>
-      <c r="F150" t="s">
-        <v>791</v>
-      </c>
-      <c r="G150" t="s">
-        <v>32</v>
-      </c>
       <c r="H150" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I150" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J150"/>
       <c r="K150"/>
@@ -12534,61 +12504,65 @@
       <c r="M150" t="s">
         <v>887</v>
       </c>
-      <c r="N150" t="s">
-        <v>66</v>
-      </c>
-      <c r="O150"/>
-      <c r="P150"/>
+      <c r="N150"/>
+      <c r="O150" t="s">
+        <v>888</v>
+      </c>
+      <c r="P150" t="s">
+        <v>889</v>
+      </c>
       <c r="Q150"/>
-      <c r="R150"/>
+      <c r="R150" t="s">
+        <v>46</v>
+      </c>
       <c r="S150"/>
       <c r="T150"/>
       <c r="U150" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="V150" t="s">
-        <v>452</v>
+        <v>890</v>
       </c>
       <c r="W150" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="X150" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="Y150" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="Z150" t="n">
-        <v>271</v>
+        <v>183</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B151" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C151" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D151" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E151" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="G151" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="H151" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I151" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="J151"/>
       <c r="K151"/>
@@ -12610,131 +12584,129 @@
       <c r="S151"/>
       <c r="T151"/>
       <c r="U151" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="V151" t="s">
+        <v>890</v>
+      </c>
+      <c r="W151" t="s">
         <v>898</v>
       </c>
-      <c r="W151" t="s">
+      <c r="X151" t="s">
         <v>899</v>
       </c>
-      <c r="X151" t="s">
-        <v>900</v>
-      </c>
       <c r="Y151" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="Z151" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B152" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C152" t="s">
+        <v>900</v>
+      </c>
+      <c r="D152" t="s">
         <v>901</v>
       </c>
-      <c r="D152" t="s">
-        <v>902</v>
-      </c>
       <c r="E152" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="G152" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="H152" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I152" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="J152"/>
       <c r="K152"/>
       <c r="L152"/>
       <c r="M152" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="N152"/>
       <c r="O152" t="s">
+        <v>903</v>
+      </c>
+      <c r="P152" t="s">
         <v>904</v>
-      </c>
-      <c r="P152" t="s">
-        <v>905</v>
       </c>
       <c r="Q152"/>
       <c r="R152" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="S152"/>
       <c r="T152"/>
       <c r="U152" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="V152" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="W152" t="s">
+        <v>905</v>
+      </c>
+      <c r="X152" t="s">
         <v>906</v>
       </c>
-      <c r="X152" t="s">
-        <v>907</v>
-      </c>
       <c r="Y152" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="Z152" t="n">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B153" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C153" t="s">
+        <v>907</v>
+      </c>
+      <c r="D153" t="s">
+        <v>170</v>
+      </c>
+      <c r="E153" t="s">
+        <v>267</v>
+      </c>
+      <c r="F153" t="s">
         <v>908</v>
       </c>
-      <c r="D153" t="s">
+      <c r="G153" t="s">
         <v>909</v>
       </c>
-      <c r="E153" t="s">
-        <v>302</v>
-      </c>
-      <c r="F153" t="s">
-        <v>893</v>
-      </c>
-      <c r="G153" t="s">
-        <v>894</v>
-      </c>
       <c r="H153" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I153" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="J153"/>
-      <c r="K153"/>
+      <c r="K153" t="s">
+        <v>910</v>
+      </c>
       <c r="L153"/>
       <c r="M153" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="N153"/>
-      <c r="O153" t="s">
-        <v>911</v>
-      </c>
-      <c r="P153" t="s">
-        <v>912</v>
-      </c>
+      <c r="O153"/>
+      <c r="P153"/>
       <c r="Q153"/>
       <c r="R153" t="s">
         <v>226</v>
@@ -12742,123 +12714,123 @@
       <c r="S153"/>
       <c r="T153"/>
       <c r="U153" t="s">
-        <v>909</v>
+        <v>170</v>
       </c>
       <c r="V153" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="W153" t="s">
+        <v>912</v>
+      </c>
+      <c r="X153" t="s">
         <v>913</v>
       </c>
-      <c r="X153" t="s">
-        <v>914</v>
-      </c>
       <c r="Y153" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="Z153" t="n">
-        <v>202</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B154" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C154" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D154" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="E154" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="F154" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="G154" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="H154" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I154" t="s">
         <v>129</v>
       </c>
       <c r="J154"/>
       <c r="K154" t="s">
-        <v>918</v>
+        <v>83</v>
       </c>
       <c r="L154"/>
       <c r="M154" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="N154"/>
       <c r="O154"/>
       <c r="P154"/>
       <c r="Q154"/>
       <c r="R154" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="S154"/>
       <c r="T154"/>
       <c r="U154" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="V154" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="W154" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="X154" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="Y154" t="s">
         <v>57</v>
       </c>
       <c r="Z154" t="n">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B155" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C155" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="D155" t="s">
-        <v>81</v>
+        <v>918</v>
       </c>
       <c r="E155" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F155" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="G155" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="H155" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I155" t="s">
         <v>129</v>
       </c>
       <c r="J155"/>
       <c r="K155" t="s">
-        <v>83</v>
+        <v>919</v>
       </c>
       <c r="L155"/>
       <c r="M155" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="N155"/>
       <c r="O155"/>
@@ -12870,115 +12842,111 @@
       <c r="S155"/>
       <c r="T155"/>
       <c r="U155" t="s">
-        <v>81</v>
+        <v>920</v>
       </c>
       <c r="V155" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="W155" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="X155" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="Y155" t="s">
         <v>57</v>
       </c>
       <c r="Z155" t="n">
-        <v>138</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B156" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C156" t="s">
+        <v>923</v>
+      </c>
+      <c r="D156" t="s">
+        <v>924</v>
+      </c>
+      <c r="E156" t="s">
+        <v>199</v>
+      </c>
+      <c r="F156" t="s">
         <v>925</v>
       </c>
-      <c r="D156" t="s">
+      <c r="G156" t="s">
         <v>926</v>
       </c>
-      <c r="E156" t="s">
-        <v>30</v>
-      </c>
-      <c r="F156" t="s">
-        <v>916</v>
-      </c>
-      <c r="G156" t="s">
-        <v>917</v>
-      </c>
       <c r="H156" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I156" t="s">
         <v>129</v>
       </c>
       <c r="J156"/>
-      <c r="K156" t="s">
-        <v>927</v>
-      </c>
+      <c r="K156"/>
       <c r="L156"/>
-      <c r="M156" t="s">
-        <v>919</v>
-      </c>
+      <c r="M156"/>
       <c r="N156"/>
       <c r="O156"/>
       <c r="P156"/>
       <c r="Q156"/>
       <c r="R156" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="S156"/>
       <c r="T156"/>
       <c r="U156" t="s">
+        <v>924</v>
+      </c>
+      <c r="V156" t="s">
+        <v>890</v>
+      </c>
+      <c r="W156" t="s">
+        <v>927</v>
+      </c>
+      <c r="X156" t="s">
         <v>928</v>
-      </c>
-      <c r="V156" t="s">
-        <v>898</v>
-      </c>
-      <c r="W156" t="s">
-        <v>929</v>
-      </c>
-      <c r="X156" t="s">
-        <v>930</v>
       </c>
       <c r="Y156" t="s">
         <v>57</v>
       </c>
       <c r="Z156" t="n">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B157" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C157" t="s">
+        <v>929</v>
+      </c>
+      <c r="D157" t="s">
+        <v>930</v>
+      </c>
+      <c r="E157" t="s">
+        <v>193</v>
+      </c>
+      <c r="F157" t="s">
         <v>931</v>
       </c>
-      <c r="D157" t="s">
+      <c r="G157" t="s">
         <v>932</v>
       </c>
-      <c r="E157" t="s">
-        <v>199</v>
-      </c>
-      <c r="F157" t="s">
-        <v>933</v>
-      </c>
-      <c r="G157" t="s">
-        <v>934</v>
-      </c>
       <c r="H157" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I157" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="J157"/>
       <c r="K157"/>
@@ -12989,53 +12957,53 @@
       <c r="P157"/>
       <c r="Q157"/>
       <c r="R157" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="S157"/>
       <c r="T157"/>
       <c r="U157" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="V157" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="W157" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="X157" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="Y157" t="s">
         <v>57</v>
       </c>
       <c r="Z157" t="n">
-        <v>48</v>
+        <v>194</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B158" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C158" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D158" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E158" t="s">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="F158" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="G158" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="H158" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I158" t="s">
         <v>53</v>
@@ -13049,56 +13017,56 @@
       <c r="P158"/>
       <c r="Q158"/>
       <c r="R158" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="S158"/>
       <c r="T158"/>
       <c r="U158" t="s">
+        <v>936</v>
+      </c>
+      <c r="V158" t="s">
+        <v>890</v>
+      </c>
+      <c r="W158" t="s">
+        <v>937</v>
+      </c>
+      <c r="X158" t="s">
         <v>938</v>
-      </c>
-      <c r="V158" t="s">
-        <v>898</v>
-      </c>
-      <c r="W158" t="s">
-        <v>941</v>
-      </c>
-      <c r="X158" t="s">
-        <v>942</v>
       </c>
       <c r="Y158" t="s">
         <v>57</v>
       </c>
       <c r="Z158" t="n">
-        <v>195</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B159" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C159" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D159" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="E159" t="s">
-        <v>30</v>
+        <v>808</v>
       </c>
       <c r="F159" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="G159" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="H159" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I159" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J159"/>
       <c r="K159"/>
@@ -13109,53 +13077,53 @@
       <c r="P159"/>
       <c r="Q159"/>
       <c r="R159" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="S159"/>
       <c r="T159"/>
       <c r="U159" t="s">
+        <v>940</v>
+      </c>
+      <c r="V159" t="s">
+        <v>890</v>
+      </c>
+      <c r="W159" t="s">
+        <v>943</v>
+      </c>
+      <c r="X159" t="s">
         <v>944</v>
       </c>
-      <c r="V159" t="s">
-        <v>898</v>
-      </c>
-      <c r="W159" t="s">
-        <v>945</v>
-      </c>
-      <c r="X159" t="s">
-        <v>946</v>
-      </c>
       <c r="Y159" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="Z159" t="n">
-        <v>114</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B160" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C160" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D160" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E160" t="s">
-        <v>816</v>
+        <v>193</v>
       </c>
       <c r="F160" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="G160" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H160" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I160" t="s">
         <v>34</v>
@@ -13174,81 +13142,21 @@
       <c r="S160"/>
       <c r="T160"/>
       <c r="U160" t="s">
+        <v>946</v>
+      </c>
+      <c r="V160" t="s">
+        <v>890</v>
+      </c>
+      <c r="W160" t="s">
+        <v>947</v>
+      </c>
+      <c r="X160" t="s">
         <v>948</v>
-      </c>
-      <c r="V160" t="s">
-        <v>898</v>
-      </c>
-      <c r="W160" t="s">
-        <v>951</v>
-      </c>
-      <c r="X160" t="s">
-        <v>952</v>
       </c>
       <c r="Y160" t="s">
         <v>41</v>
       </c>
       <c r="Z160" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>890</v>
-      </c>
-      <c r="B161" t="s">
-        <v>890</v>
-      </c>
-      <c r="C161" t="s">
-        <v>953</v>
-      </c>
-      <c r="D161" t="s">
-        <v>954</v>
-      </c>
-      <c r="E161" t="s">
-        <v>193</v>
-      </c>
-      <c r="F161" t="s">
-        <v>949</v>
-      </c>
-      <c r="G161" t="s">
-        <v>950</v>
-      </c>
-      <c r="H161" t="s">
-        <v>789</v>
-      </c>
-      <c r="I161" t="s">
-        <v>34</v>
-      </c>
-      <c r="J161"/>
-      <c r="K161"/>
-      <c r="L161"/>
-      <c r="M161"/>
-      <c r="N161"/>
-      <c r="O161"/>
-      <c r="P161"/>
-      <c r="Q161"/>
-      <c r="R161" t="s">
-        <v>46</v>
-      </c>
-      <c r="S161"/>
-      <c r="T161"/>
-      <c r="U161" t="s">
-        <v>954</v>
-      </c>
-      <c r="V161" t="s">
-        <v>898</v>
-      </c>
-      <c r="W161" t="s">
-        <v>955</v>
-      </c>
-      <c r="X161" t="s">
-        <v>956</v>
-      </c>
-      <c r="Y161" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z161" t="n">
         <v>8</v>
       </c>
     </row>
